--- a/01_input/04_codebook/codebook.xlsx
+++ b/01_input/04_codebook/codebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c101f8769f4fd7d/Escritorio/NUDOS/2023_digital_inclusion/01_input/04_codebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="322" documentId="11_BE684090E4397B7EDE701FB4C457786047A6B131" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{214A408F-BA6E-48AC-95DD-F465C46858D0}"/>
+  <xr:revisionPtr revIDLastSave="337" documentId="11_BE684090E4397B7EDE701FB4C457786047A6B131" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{079060B9-344A-4CA7-AA1F-15AF838121CD}"/>
   <bookViews>
     <workbookView xWindow="32280" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="719">
   <si>
     <t>module</t>
   </si>
@@ -585,9 +585,6 @@
   </si>
   <si>
     <t>Módulo C: Habilidades digitales</t>
-  </si>
-  <si>
-    <t>Inseguridad en uso tecnologías</t>
   </si>
   <si>
     <t>En una escala de 1 a 3, donde 1 significa "Nunca" y 3 "Frecuentemente" ¿Cuán a menudo siente lo siguiente?</t>
@@ -664,9 +661,6 @@
     </r>
   </si>
   <si>
-    <t>Autoeficacia</t>
-  </si>
-  <si>
     <t>c2_1</t>
   </si>
   <si>
@@ -2113,9 +2107,6 @@
     <t>Experiencias con información falsa</t>
   </si>
   <si>
-    <t>¿Cuándo navega por internet o usa las redes sociales, ¿con qué frecuencia le han ocurrido las siguientes situaciones?</t>
-  </si>
-  <si>
     <t>c5_1</t>
   </si>
   <si>
@@ -2144,9 +2135,6 @@
   </si>
   <si>
     <t>He compartido información que luego resultaron ser falsas o engañosas</t>
-  </si>
-  <si>
-    <t>He bloqeado o dejado de seguir a personas porque publicar información falsa</t>
   </si>
   <si>
     <t>Cuando he recibido noticias falsas o engañosas, las he desmentido y aclarado que son falsas</t>
@@ -2223,6 +2211,24 @@
   </si>
   <si>
     <t>Módulo E: Actividades Digitales</t>
+  </si>
+  <si>
+    <t>Autoeficacia Política</t>
+  </si>
+  <si>
+    <t>He bloqueado o dejado de seguir a personas porque publicar información falsa</t>
+  </si>
+  <si>
+    <t>Cuándo navega por internet o usa las redes sociales, ¿con qué frecuencia le han ocurrido las siguientes situaciones?</t>
+  </si>
+  <si>
+    <t>Participación política digital</t>
+  </si>
+  <si>
+    <t>Ansiedad tecnológica</t>
+  </si>
+  <si>
+    <t>Autoeficacia en internet</t>
   </si>
 </sst>
 </file>
@@ -2779,8 +2785,8 @@
   </sheetPr>
   <dimension ref="A1:R1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="A263" sqref="A263"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2844,21 +2850,21 @@
     </row>
     <row r="2" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>604</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>617</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>618</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>606</v>
       </c>
       <c r="E2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="19" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="3"/>
@@ -2873,24 +2879,24 @@
     </row>
     <row r="3" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>605</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>607</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="19" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="3"/>
@@ -2905,24 +2911,24 @@
     </row>
     <row r="4" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="19" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="3"/>
@@ -2937,24 +2943,24 @@
     </row>
     <row r="5" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="19" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="3"/>
@@ -2969,24 +2975,24 @@
     </row>
     <row r="6" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="19" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="3"/>
@@ -3306,10 +3312,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -3495,7 +3501,7 @@
         <v>55</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>46</v>
@@ -3532,7 +3538,7 @@
         <v>43</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>56</v>
@@ -3842,10 +3848,10 @@
         <v>59</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -4121,7 +4127,7 @@
         <v>98</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>17</v>
@@ -4157,7 +4163,7 @@
         <v>102</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>34</v>
@@ -4303,7 +4309,7 @@
         <v>111</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>17</v>
@@ -4339,7 +4345,7 @@
         <v>115</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>17</v>
@@ -4377,7 +4383,7 @@
         <v>102</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>24</v>
@@ -4417,7 +4423,7 @@
         <v>102</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>17</v>
@@ -4455,7 +4461,7 @@
         <v>102</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>17</v>
@@ -4493,7 +4499,7 @@
         <v>102</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>24</v>
@@ -4531,7 +4537,7 @@
         <v>102</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>17</v>
@@ -4560,17 +4566,17 @@
         <v>117</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="18" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="3"/>
@@ -4603,7 +4609,7 @@
         <v>133</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>134</v>
@@ -4643,7 +4649,7 @@
         <v>133</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>134</v>
@@ -4683,7 +4689,7 @@
         <v>133</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>134</v>
@@ -4723,7 +4729,7 @@
         <v>133</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>134</v>
@@ -4763,7 +4769,7 @@
         <v>133</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>134</v>
@@ -4803,7 +4809,7 @@
         <v>133</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>134</v>
@@ -4843,7 +4849,7 @@
         <v>133</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>134</v>
@@ -4874,16 +4880,16 @@
         <v>130</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>133</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>134</v>
@@ -4899,7 +4905,7 @@
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
     </row>
-    <row r="60" spans="1:18" ht="50" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>12</v>
       </c>
@@ -4907,19 +4913,19 @@
         <v>150</v>
       </c>
       <c r="C60" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="F60" s="18" t="s">
         <v>667</v>
       </c>
-      <c r="D60" s="18" t="s">
-        <v>668</v>
-      </c>
-      <c r="E60" s="18" t="s">
-        <v>673</v>
-      </c>
-      <c r="F60" s="18" t="s">
-        <v>669</v>
-      </c>
       <c r="G60" s="18" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>151</v>
@@ -4937,7 +4943,7 @@
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
     </row>
-    <row r="61" spans="1:18" ht="50" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>12</v>
       </c>
@@ -4945,19 +4951,19 @@
         <v>150</v>
       </c>
       <c r="C61" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>668</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="F61" s="18" t="s">
         <v>667</v>
       </c>
-      <c r="D61" s="18" t="s">
-        <v>670</v>
-      </c>
-      <c r="E61" s="18" t="s">
-        <v>674</v>
-      </c>
-      <c r="F61" s="18" t="s">
-        <v>669</v>
-      </c>
       <c r="G61" s="18" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>151</v>
@@ -4973,7 +4979,7 @@
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
     </row>
-    <row r="62" spans="1:18" ht="50" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>12</v>
       </c>
@@ -4981,19 +4987,19 @@
         <v>150</v>
       </c>
       <c r="C62" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>669</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>673</v>
+      </c>
+      <c r="F62" s="18" t="s">
         <v>667</v>
       </c>
-      <c r="D62" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="E62" s="18" t="s">
-        <v>675</v>
-      </c>
-      <c r="F62" s="18" t="s">
-        <v>669</v>
-      </c>
       <c r="G62" s="18" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>151</v>
@@ -5009,7 +5015,7 @@
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
     </row>
-    <row r="63" spans="1:18" ht="50" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>12</v>
       </c>
@@ -5017,19 +5023,19 @@
         <v>150</v>
       </c>
       <c r="C63" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>674</v>
+      </c>
+      <c r="F63" s="18" t="s">
         <v>667</v>
       </c>
-      <c r="D63" s="18" t="s">
-        <v>672</v>
-      </c>
-      <c r="E63" s="18" t="s">
-        <v>676</v>
-      </c>
-      <c r="F63" s="18" t="s">
-        <v>669</v>
-      </c>
       <c r="G63" s="18" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>151</v>
@@ -5062,10 +5068,10 @@
         <v>132</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>151</v>
@@ -5102,10 +5108,10 @@
         <v>137</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>151</v>
@@ -5142,10 +5148,10 @@
         <v>140</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>151</v>
@@ -5182,10 +5188,10 @@
         <v>142</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>151</v>
@@ -5222,10 +5228,10 @@
         <v>144</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>151</v>
@@ -5262,10 +5268,10 @@
         <v>146</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>151</v>
@@ -5302,10 +5308,10 @@
         <v>148</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>151</v>
@@ -5336,16 +5342,16 @@
         <v>153</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>151</v>
@@ -5372,16 +5378,16 @@
         <v>153</v>
       </c>
       <c r="D72" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="F72" s="18" t="s">
         <v>664</v>
       </c>
-      <c r="E72" s="18" t="s">
-        <v>665</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>666</v>
-      </c>
       <c r="G72" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
@@ -5415,7 +5421,7 @@
         <v>102</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>167</v>
@@ -5455,7 +5461,7 @@
         <v>102</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>151</v>
@@ -5495,7 +5501,7 @@
         <v>102</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>167</v>
@@ -5535,7 +5541,7 @@
         <v>102</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>167</v>
@@ -5575,7 +5581,7 @@
         <v>102</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>167</v>
@@ -5609,13 +5615,13 @@
         <v>179</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>167</v>
@@ -5655,7 +5661,7 @@
         <v>102</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>167</v>
@@ -5695,7 +5701,7 @@
         <v>102</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>167</v>
@@ -5735,7 +5741,7 @@
         <v>102</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>167</v>
@@ -5766,14 +5772,14 @@
         <v>164</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>167</v>
@@ -5794,19 +5800,19 @@
         <v>187</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="D83" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="E83" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="F83" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="6" t="s">
@@ -5830,26 +5836,26 @@
         <v>187</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="D84" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E84" s="4" t="s">
-        <v>194</v>
-      </c>
       <c r="F84" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3">
@@ -5868,19 +5874,19 @@
         <v>187</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="D85" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E85" s="4" t="s">
-        <v>197</v>
-      </c>
       <c r="F85" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="6" t="s">
@@ -5904,26 +5910,26 @@
         <v>187</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="D86" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E86" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="F86" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J86" s="3"/>
       <c r="K86" s="3">
@@ -5942,19 +5948,19 @@
         <v>187</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E87" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="F87" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="6" t="s">
@@ -5978,19 +5984,19 @@
         <v>187</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>201</v>
+        <v>718</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="6" t="s">
@@ -6014,19 +6020,19 @@
         <v>187</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>201</v>
+        <v>718</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="6" t="s">
@@ -6050,19 +6056,19 @@
         <v>187</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>201</v>
+        <v>718</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="6" t="s">
@@ -6086,16 +6092,16 @@
         <v>187</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="E91" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>102</v>
@@ -6105,7 +6111,7 @@
         <v>17</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J91" s="3"/>
       <c r="K91" s="3">
@@ -6124,16 +6130,16 @@
         <v>187</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>102</v>
@@ -6160,16 +6166,16 @@
         <v>187</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>102</v>
@@ -6179,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J93" s="3"/>
       <c r="K93" s="3">
@@ -6198,26 +6204,26 @@
         <v>187</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J94" s="3"/>
       <c r="K94" s="3">
@@ -6236,16 +6242,16 @@
         <v>187</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>102</v>
@@ -6255,7 +6261,7 @@
         <v>17</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J95" s="3"/>
       <c r="K95" s="3">
@@ -6274,16 +6280,16 @@
         <v>187</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>102</v>
@@ -6310,16 +6316,16 @@
         <v>187</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>102</v>
@@ -6346,16 +6352,16 @@
         <v>187</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E98" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>102</v>
@@ -6382,26 +6388,26 @@
         <v>187</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J99" s="3"/>
       <c r="K99" s="3">
@@ -6420,26 +6426,26 @@
         <v>187</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J100" s="3"/>
       <c r="K100" s="3">
@@ -6458,16 +6464,16 @@
         <v>187</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>102</v>
@@ -6494,16 +6500,16 @@
         <v>187</v>
       </c>
       <c r="B102" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>242</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>102</v>
@@ -6513,7 +6519,7 @@
         <v>17</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J102" s="3"/>
       <c r="K102" s="3">
@@ -6532,16 +6538,16 @@
         <v>187</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>102</v>
@@ -6551,7 +6557,7 @@
         <v>17</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J103" s="3"/>
       <c r="K103" s="3">
@@ -6570,26 +6576,26 @@
         <v>187</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J104" s="3"/>
       <c r="K104" s="3">
@@ -6608,26 +6614,26 @@
         <v>187</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J105" s="3"/>
       <c r="K105" s="3">
@@ -6646,26 +6652,26 @@
         <v>187</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J106" s="3"/>
       <c r="K106" s="3">
@@ -6684,26 +6690,26 @@
         <v>187</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J107" s="3"/>
       <c r="K107" s="3">
@@ -6722,16 +6728,16 @@
         <v>187</v>
       </c>
       <c r="B108" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E108" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>102</v>
@@ -6758,16 +6764,16 @@
         <v>187</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>102</v>
@@ -6794,16 +6800,16 @@
         <v>187</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>102</v>
@@ -6830,19 +6836,19 @@
         <v>187</v>
       </c>
       <c r="B111" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D111" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="E111" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="F111" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="6" t="s">
@@ -6866,19 +6872,19 @@
         <v>187</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="6" t="s">
@@ -6902,19 +6908,19 @@
         <v>187</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="6" t="s">
@@ -6938,19 +6944,19 @@
         <v>187</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="6" t="s">
@@ -6974,19 +6980,19 @@
         <v>187</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="6" t="s">
@@ -7010,19 +7016,19 @@
         <v>187</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="6" t="s">
@@ -7046,29 +7052,29 @@
         <v>187</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K117" s="3">
         <v>0</v>
@@ -7086,26 +7092,26 @@
         <v>187</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J118" s="3"/>
       <c r="K118" s="3">
@@ -7124,26 +7130,26 @@
         <v>187</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J119" s="3"/>
       <c r="K119" s="3">
@@ -7162,23 +7168,23 @@
         <v>187</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I120" s="6"/>
       <c r="J120" s="3"/>
@@ -7198,26 +7204,26 @@
         <v>187</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J121" s="3"/>
       <c r="K121" s="3">
@@ -7236,23 +7242,23 @@
         <v>187</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I122" s="6"/>
       <c r="J122" s="3"/>
@@ -7272,26 +7278,26 @@
         <v>187</v>
       </c>
       <c r="B123" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E123" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>297</v>
-      </c>
       <c r="F123" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J123" s="3"/>
       <c r="K123" s="3">
@@ -7310,26 +7316,26 @@
         <v>187</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J124" s="3"/>
       <c r="K124" s="3">
@@ -7348,26 +7354,26 @@
         <v>187</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J125" s="3"/>
       <c r="K125" s="3">
@@ -7386,26 +7392,26 @@
         <v>187</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J126" s="3"/>
       <c r="K126" s="3">
@@ -7424,26 +7430,26 @@
         <v>187</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J127" s="3"/>
       <c r="K127" s="3">
@@ -7462,26 +7468,26 @@
         <v>187</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J128" s="3"/>
       <c r="K128" s="3">
@@ -7500,26 +7506,26 @@
         <v>187</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J129" s="3"/>
       <c r="K129" s="3">
@@ -7538,19 +7544,19 @@
         <v>187</v>
       </c>
       <c r="B130" s="18" t="s">
+        <v>678</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="D130" s="18" t="s">
+        <v>679</v>
+      </c>
+      <c r="E130" s="18" t="s">
         <v>680</v>
       </c>
-      <c r="C130" s="18" t="s">
+      <c r="F130" s="18" t="s">
         <v>681</v>
-      </c>
-      <c r="D130" s="18" t="s">
-        <v>682</v>
-      </c>
-      <c r="E130" s="18" t="s">
-        <v>683</v>
-      </c>
-      <c r="F130" s="18" t="s">
-        <v>684</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="6" t="s">
@@ -7572,19 +7578,19 @@
         <v>187</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C131" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="D131" s="18" t="s">
+        <v>682</v>
+      </c>
+      <c r="E131" s="18" t="s">
+        <v>687</v>
+      </c>
+      <c r="F131" s="18" t="s">
         <v>681</v>
-      </c>
-      <c r="D131" s="18" t="s">
-        <v>685</v>
-      </c>
-      <c r="E131" s="18" t="s">
-        <v>690</v>
-      </c>
-      <c r="F131" s="18" t="s">
-        <v>684</v>
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="6" t="s">
@@ -7606,19 +7612,19 @@
         <v>187</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C132" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="D132" s="18" t="s">
+        <v>683</v>
+      </c>
+      <c r="E132" s="18" t="s">
+        <v>688</v>
+      </c>
+      <c r="F132" s="18" t="s">
         <v>681</v>
-      </c>
-      <c r="D132" s="18" t="s">
-        <v>686</v>
-      </c>
-      <c r="E132" s="18" t="s">
-        <v>691</v>
-      </c>
-      <c r="F132" s="18" t="s">
-        <v>684</v>
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="6" t="s">
@@ -7640,19 +7646,19 @@
         <v>187</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C133" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="D133" s="18" t="s">
+        <v>684</v>
+      </c>
+      <c r="E133" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="F133" s="18" t="s">
         <v>681</v>
-      </c>
-      <c r="D133" s="18" t="s">
-        <v>687</v>
-      </c>
-      <c r="E133" s="18" t="s">
-        <v>692</v>
-      </c>
-      <c r="F133" s="18" t="s">
-        <v>684</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="6" t="s">
@@ -7674,19 +7680,19 @@
         <v>187</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C134" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="D134" s="18" t="s">
+        <v>685</v>
+      </c>
+      <c r="E134" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="F134" s="18" t="s">
         <v>681</v>
-      </c>
-      <c r="D134" s="18" t="s">
-        <v>688</v>
-      </c>
-      <c r="E134" s="18" t="s">
-        <v>693</v>
-      </c>
-      <c r="F134" s="18" t="s">
-        <v>684</v>
       </c>
       <c r="G134" s="4"/>
       <c r="H134" s="6" t="s">
@@ -7708,19 +7714,19 @@
         <v>187</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C135" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="D135" s="18" t="s">
+        <v>686</v>
+      </c>
+      <c r="E135" s="18" t="s">
+        <v>690</v>
+      </c>
+      <c r="F135" s="18" t="s">
         <v>681</v>
-      </c>
-      <c r="D135" s="18" t="s">
-        <v>689</v>
-      </c>
-      <c r="E135" s="18" t="s">
-        <v>694</v>
-      </c>
-      <c r="F135" s="18" t="s">
-        <v>684</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="6" t="s">
@@ -7739,29 +7745,29 @@
     </row>
     <row r="136" spans="1:18" ht="50" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D136" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="E136" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C136" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>314</v>
-      </c>
       <c r="F136" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G136" s="4"/>
       <c r="H136" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J136" s="3"/>
       <c r="K136" s="3">
@@ -7777,29 +7783,29 @@
     </row>
     <row r="137" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B137" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D137" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="E137" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="F137" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>320</v>
       </c>
       <c r="G137" s="4"/>
       <c r="H137" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J137" s="3"/>
       <c r="K137" s="3">
@@ -7815,29 +7821,29 @@
     </row>
     <row r="138" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J138" s="3"/>
       <c r="K138" s="3">
@@ -7853,29 +7859,29 @@
     </row>
     <row r="139" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B139" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E139" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>327</v>
-      </c>
       <c r="F139" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G139" s="4"/>
       <c r="H139" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J139" s="3"/>
       <c r="K139" s="3">
@@ -7891,29 +7897,29 @@
     </row>
     <row r="140" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J140" s="3"/>
       <c r="K140" s="3">
@@ -7929,29 +7935,29 @@
     </row>
     <row r="141" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B141" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E141" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>332</v>
-      </c>
       <c r="F141" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J141" s="3"/>
       <c r="K141" s="3">
@@ -7967,29 +7973,29 @@
     </row>
     <row r="142" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G142" s="4"/>
       <c r="H142" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J142" s="3"/>
       <c r="K142" s="3">
@@ -8005,24 +8011,24 @@
     </row>
     <row r="143" spans="1:18" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B143" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D143" s="4" t="s">
         <v>335</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I143" s="6"/>
       <c r="J143" s="3"/>
@@ -8039,22 +8045,22 @@
     </row>
     <row r="144" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B144" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D144" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="E144" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="F144" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>344</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="6" t="s">
@@ -8075,22 +8081,22 @@
     </row>
     <row r="145" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G145" s="4"/>
       <c r="H145" s="6" t="s">
@@ -8111,22 +8117,22 @@
     </row>
     <row r="146" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G146" s="4"/>
       <c r="H146" s="6" t="s">
@@ -8147,22 +8153,22 @@
     </row>
     <row r="147" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D147" s="18" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G147" s="4"/>
       <c r="H147" s="6" t="s">
@@ -8183,22 +8189,22 @@
     </row>
     <row r="148" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E148" s="18" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G148" s="4"/>
       <c r="H148" s="6" t="s">
@@ -8219,29 +8225,29 @@
     </row>
     <row r="149" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B149" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E149" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C149" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>353</v>
-      </c>
       <c r="F149" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G149" s="4"/>
       <c r="H149" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J149" s="3"/>
       <c r="K149" s="3">
@@ -8257,22 +8263,22 @@
     </row>
     <row r="150" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G150" s="4"/>
       <c r="H150" s="6" t="s">
@@ -8293,22 +8299,22 @@
     </row>
     <row r="151" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G151" s="4"/>
       <c r="H151" s="6" t="s">
@@ -8329,22 +8335,22 @@
     </row>
     <row r="152" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G152" s="4"/>
       <c r="H152" s="6" t="s">
@@ -8365,29 +8371,29 @@
     </row>
     <row r="153" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G153" s="4"/>
       <c r="H153" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J153" s="3"/>
       <c r="K153" s="3">
@@ -8403,29 +8409,29 @@
     </row>
     <row r="154" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G154" s="4"/>
       <c r="H154" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I154" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J154" s="3"/>
       <c r="K154" s="3">
@@ -8441,22 +8447,22 @@
     </row>
     <row r="155" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B155" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E155" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C155" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>369</v>
-      </c>
       <c r="F155" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G155" s="4"/>
       <c r="H155" s="6" t="s">
@@ -8477,22 +8483,22 @@
     </row>
     <row r="156" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G156" s="4"/>
       <c r="H156" s="6" t="s">
@@ -8513,22 +8519,22 @@
     </row>
     <row r="157" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="6" t="s">
@@ -8549,29 +8555,29 @@
     </row>
     <row r="158" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G158" s="4"/>
       <c r="H158" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I158" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J158" s="3"/>
       <c r="K158" s="3">
@@ -8587,22 +8593,22 @@
     </row>
     <row r="159" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B159" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E159" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C159" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>379</v>
-      </c>
       <c r="F159" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G159" s="4"/>
       <c r="H159" s="6" t="s">
@@ -8623,22 +8629,22 @@
     </row>
     <row r="160" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G160" s="4"/>
       <c r="H160" s="6" t="s">
@@ -8659,22 +8665,22 @@
     </row>
     <row r="161" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G161" s="4"/>
       <c r="H161" s="6" t="s">
@@ -8695,22 +8701,22 @@
     </row>
     <row r="162" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G162" s="4"/>
       <c r="H162" s="6" t="s">
@@ -8731,22 +8737,22 @@
     </row>
     <row r="163" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G163" s="4"/>
       <c r="H163" s="6" t="s">
@@ -8767,22 +8773,22 @@
     </row>
     <row r="164" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="6" t="s">
@@ -8803,22 +8809,22 @@
     </row>
     <row r="165" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B165" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E165" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C165" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E165" s="4" t="s">
-        <v>392</v>
-      </c>
       <c r="F165" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G165" s="4"/>
       <c r="H165" s="6" t="s">
@@ -8839,29 +8845,29 @@
     </row>
     <row r="166" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G166" s="4"/>
       <c r="H166" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J166" s="3"/>
       <c r="K166" s="3">
@@ -8877,29 +8883,29 @@
     </row>
     <row r="167" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G167" s="4"/>
       <c r="H167" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J167" s="3"/>
       <c r="K167" s="3">
@@ -8915,29 +8921,29 @@
     </row>
     <row r="168" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G168" s="24"/>
       <c r="H168" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J168" s="3"/>
       <c r="K168" s="3">
@@ -8953,22 +8959,22 @@
     </row>
     <row r="169" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="B169" s="4" t="s">
-        <v>390</v>
-      </c>
       <c r="C169" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D169" s="18" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E169" s="18" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G169" s="11"/>
       <c r="H169" s="6"/>
@@ -8985,22 +8991,22 @@
     </row>
     <row r="170" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="B170" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="B170" s="4" t="s">
-        <v>390</v>
-      </c>
       <c r="C170" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D170" s="18" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="E170" s="18" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G170" s="11"/>
       <c r="H170" s="6"/>
@@ -9017,22 +9023,22 @@
     </row>
     <row r="171" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="B171" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="B171" s="4" t="s">
-        <v>390</v>
-      </c>
       <c r="C171" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D171" s="18" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G171" s="11"/>
       <c r="H171" s="6"/>
@@ -9049,19 +9055,19 @@
     </row>
     <row r="172" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B172" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D172" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C172" s="4" t="s">
+      <c r="E172" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>405</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>102</v>
@@ -9071,7 +9077,7 @@
         <v>17</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J172" s="3"/>
       <c r="K172" s="3">
@@ -9087,19 +9093,19 @@
     </row>
     <row r="173" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>102</v>
@@ -9123,19 +9129,19 @@
     </row>
     <row r="174" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>102</v>
@@ -9159,19 +9165,19 @@
     </row>
     <row r="175" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F175" s="4" t="s">
         <v>102</v>
@@ -9195,19 +9201,19 @@
     </row>
     <row r="176" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F176" s="4" t="s">
         <v>102</v>
@@ -9231,19 +9237,19 @@
     </row>
     <row r="177" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F177" s="4" t="s">
         <v>102</v>
@@ -9267,19 +9273,19 @@
     </row>
     <row r="178" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>102</v>
@@ -9303,19 +9309,19 @@
     </row>
     <row r="179" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>102</v>
@@ -9339,19 +9345,19 @@
     </row>
     <row r="180" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F180" s="4" t="s">
         <v>102</v>
@@ -9375,19 +9381,19 @@
     </row>
     <row r="181" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F181" s="4" t="s">
         <v>102</v>
@@ -9411,19 +9417,19 @@
     </row>
     <row r="182" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>102</v>
@@ -9447,19 +9453,19 @@
     </row>
     <row r="183" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>102</v>
@@ -9483,19 +9489,19 @@
     </row>
     <row r="184" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>102</v>
@@ -9519,19 +9525,19 @@
     </row>
     <row r="185" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>102</v>
@@ -9555,16 +9561,16 @@
     </row>
     <row r="186" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>128</v>
@@ -9591,19 +9597,19 @@
     </row>
     <row r="187" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F187" s="4" t="s">
         <v>102</v>
@@ -9613,7 +9619,7 @@
         <v>17</v>
       </c>
       <c r="I187" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J187" s="3"/>
       <c r="K187" s="3">
@@ -9629,29 +9635,29 @@
     </row>
     <row r="188" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B188" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="D188" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="E188" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="D188" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E188" s="4" t="s">
-        <v>440</v>
-      </c>
       <c r="F188" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G188" s="4"/>
       <c r="H188" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I188" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J188" s="3"/>
       <c r="K188" s="3">
@@ -9667,29 +9673,29 @@
     </row>
     <row r="189" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G189" s="4"/>
       <c r="H189" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I189" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J189" s="3"/>
       <c r="K189" s="3">
@@ -9705,29 +9711,29 @@
     </row>
     <row r="190" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G190" s="4"/>
       <c r="H190" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I190" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J190" s="3"/>
       <c r="K190" s="3">
@@ -9743,29 +9749,29 @@
     </row>
     <row r="191" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G191" s="4"/>
       <c r="H191" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I191" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J191" s="3"/>
       <c r="K191" s="3">
@@ -9781,29 +9787,29 @@
     </row>
     <row r="192" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G192" s="4"/>
       <c r="H192" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I192" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J192" s="3"/>
       <c r="K192" s="3">
@@ -9819,29 +9825,29 @@
     </row>
     <row r="193" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G193" s="4"/>
       <c r="H193" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I193" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J193" s="3"/>
       <c r="K193" s="3">
@@ -9857,29 +9863,29 @@
     </row>
     <row r="194" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G194" s="4"/>
       <c r="H194" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I194" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J194" s="3"/>
       <c r="K194" s="3">
@@ -9895,29 +9901,29 @@
     </row>
     <row r="195" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G195" s="4"/>
       <c r="H195" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I195" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J195" s="3"/>
       <c r="K195" s="3">
@@ -9933,29 +9939,29 @@
     </row>
     <row r="196" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G196" s="4"/>
       <c r="H196" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I196" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J196" s="3"/>
       <c r="K196" s="3">
@@ -9971,29 +9977,29 @@
     </row>
     <row r="197" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G197" s="4"/>
       <c r="H197" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I197" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J197" s="3"/>
       <c r="K197" s="3">
@@ -10009,19 +10015,19 @@
     </row>
     <row r="198" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D198" s="18" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E198" s="18" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
@@ -10039,22 +10045,22 @@
     </row>
     <row r="199" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C199" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="D199" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="E199" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="D199" s="4" t="s">
+      <c r="F199" s="4" t="s">
         <v>463</v>
-      </c>
-      <c r="E199" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="F199" s="4" t="s">
-        <v>465</v>
       </c>
       <c r="G199" s="4"/>
       <c r="H199" s="6" t="s">
@@ -10075,22 +10081,22 @@
     </row>
     <row r="200" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C200" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="B200" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>462</v>
-      </c>
       <c r="D200" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G200" s="4"/>
       <c r="H200" s="6" t="s">
@@ -10111,29 +10117,29 @@
     </row>
     <row r="201" spans="1:18" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C201" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="B201" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>462</v>
-      </c>
       <c r="D201" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G201" s="4"/>
       <c r="H201" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I201" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J201" s="3"/>
       <c r="K201" s="3">
@@ -10149,22 +10155,22 @@
     </row>
     <row r="202" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C202" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="D202" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E202" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="C202" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="E202" s="4" t="s">
-        <v>473</v>
-      </c>
       <c r="F202" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G202" s="4"/>
       <c r="H202" s="6" t="s">
@@ -10185,22 +10191,22 @@
     </row>
     <row r="203" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C203" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="B203" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>462</v>
-      </c>
       <c r="D203" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G203" s="4"/>
       <c r="H203" s="6" t="s">
@@ -10221,22 +10227,22 @@
     </row>
     <row r="204" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C204" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="B204" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>462</v>
-      </c>
       <c r="D204" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G204" s="4"/>
       <c r="H204" s="6" t="s">
@@ -10257,26 +10263,26 @@
     </row>
     <row r="205" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B205" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C205" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="D205" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="C205" s="18" t="s">
+      <c r="E205" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="D205" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="E205" s="18" t="s">
-        <v>482</v>
-      </c>
       <c r="F205" s="18" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G205" s="4"/>
       <c r="H205" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I205" s="6"/>
       <c r="J205" s="3"/>
@@ -10293,26 +10299,26 @@
     </row>
     <row r="206" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B206" s="18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C206" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D206" s="18" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E206" s="18" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F206" s="18" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G206" s="4"/>
       <c r="H206" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I206" s="6"/>
       <c r="J206" s="3"/>
@@ -10329,26 +10335,26 @@
     </row>
     <row r="207" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B207" s="18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C207" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D207" s="18" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E207" s="18" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F207" s="18" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G207" s="4"/>
       <c r="H207" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I207" s="6"/>
       <c r="J207" s="3"/>
@@ -10365,26 +10371,26 @@
     </row>
     <row r="208" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B208" s="18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C208" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D208" s="18" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E208" s="18" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F208" s="18" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G208" s="4"/>
       <c r="H208" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I208" s="6"/>
       <c r="J208" s="3"/>
@@ -10401,26 +10407,26 @@
     </row>
     <row r="209" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B209" s="18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C209" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D209" s="18" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E209" s="18" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F209" s="18" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G209" s="4"/>
       <c r="H209" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I209" s="6"/>
       <c r="J209" s="3"/>
@@ -10437,26 +10443,26 @@
     </row>
     <row r="210" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B210" s="18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C210" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D210" s="18" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E210" s="18" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F210" s="18" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G210" s="4"/>
       <c r="H210" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I210" s="6"/>
       <c r="J210" s="3"/>
@@ -10473,26 +10479,26 @@
     </row>
     <row r="211" spans="1:18" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>479</v>
+        <v>713</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D211" s="18" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E211" s="18" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G211" s="4"/>
       <c r="H211" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I211" s="6"/>
       <c r="J211" s="3"/>
@@ -10509,22 +10515,22 @@
     </row>
     <row r="212" spans="1:18" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>479</v>
+        <v>713</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D212" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E212" s="18" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G212" s="4"/>
       <c r="H212" s="6" t="s">
@@ -10545,22 +10551,22 @@
     </row>
     <row r="213" spans="1:18" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>479</v>
+        <v>713</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D213" s="18" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E213" s="18" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G213" s="4"/>
       <c r="H213" s="6" t="s">
@@ -10581,26 +10587,26 @@
     </row>
     <row r="214" spans="1:18" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>479</v>
+        <v>713</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D214" s="18" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E214" s="18" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F214" s="18" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G214" s="4"/>
       <c r="H214" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I214" s="6"/>
       <c r="J214" s="3"/>
@@ -10617,19 +10623,19 @@
     </row>
     <row r="215" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B215" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D215" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="C215" s="4" t="s">
+      <c r="E215" s="4" t="s">
         <v>499</v>
-      </c>
-      <c r="D215" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="E215" s="4" t="s">
-        <v>501</v>
       </c>
       <c r="F215" s="4" t="s">
         <v>102</v>
@@ -10653,19 +10659,19 @@
     </row>
     <row r="216" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F216" s="4" t="s">
         <v>102</v>
@@ -10689,19 +10695,19 @@
     </row>
     <row r="217" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F217" s="4" t="s">
         <v>102</v>
@@ -10725,19 +10731,19 @@
     </row>
     <row r="218" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F218" s="4" t="s">
         <v>102</v>
@@ -10761,19 +10767,19 @@
     </row>
     <row r="219" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F219" s="4" t="s">
         <v>102</v>
@@ -10797,19 +10803,19 @@
     </row>
     <row r="220" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F220" s="4" t="s">
         <v>102</v>
@@ -10833,19 +10839,19 @@
     </row>
     <row r="221" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F221" s="4" t="s">
         <v>102</v>
@@ -10869,19 +10875,19 @@
     </row>
     <row r="222" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F222" s="4" t="s">
         <v>102</v>
@@ -10905,19 +10911,19 @@
     </row>
     <row r="223" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F223" s="4" t="s">
         <v>102</v>
@@ -10941,19 +10947,19 @@
     </row>
     <row r="224" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F224" s="4" t="s">
         <v>102</v>
@@ -10977,19 +10983,19 @@
     </row>
     <row r="225" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F225" s="4" t="s">
         <v>102</v>
@@ -11013,19 +11019,19 @@
     </row>
     <row r="226" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F226" s="4" t="s">
         <v>102</v>
@@ -11049,19 +11055,19 @@
     </row>
     <row r="227" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F227" s="4" t="s">
         <v>102</v>
@@ -11085,27 +11091,27 @@
     </row>
     <row r="228" spans="1:18" ht="50" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B228" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="D228" s="4" t="s">
         <v>526</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="D228" s="4" t="s">
-        <v>528</v>
       </c>
       <c r="E228" s="4"/>
       <c r="F228" s="18" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G228" s="4"/>
       <c r="H228" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I228" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J228" s="3"/>
       <c r="K228" s="3">
@@ -11121,27 +11127,27 @@
     </row>
     <row r="229" spans="1:18" ht="50" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B229" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D229" s="4" t="s">
         <v>531</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="D229" s="4" t="s">
-        <v>533</v>
       </c>
       <c r="E229" s="4"/>
       <c r="F229" s="18" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G229" s="4"/>
       <c r="H229" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I229" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J229" s="3"/>
       <c r="K229" s="3">
@@ -11157,16 +11163,16 @@
     </row>
     <row r="230" spans="1:18" ht="50" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B230" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="D230" s="4" t="s">
         <v>536</v>
-      </c>
-      <c r="C230" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="D230" s="4" t="s">
-        <v>538</v>
       </c>
       <c r="E230" s="4"/>
       <c r="F230" s="4" t="s">
@@ -11174,10 +11180,10 @@
       </c>
       <c r="G230" s="4"/>
       <c r="H230" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I230" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J230" s="3"/>
       <c r="K230" s="3">
@@ -11193,22 +11199,22 @@
     </row>
     <row r="231" spans="1:18" ht="50" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B231" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="D231" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="C231" s="4" t="s">
+      <c r="E231" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="D231" s="4" t="s">
+      <c r="F231" s="4" t="s">
         <v>542</v>
-      </c>
-      <c r="E231" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="F231" s="4" t="s">
-        <v>544</v>
       </c>
       <c r="G231" s="4"/>
       <c r="H231" s="6" t="s">
@@ -11229,22 +11235,22 @@
     </row>
     <row r="232" spans="1:18" ht="50" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G232" s="4"/>
       <c r="H232" s="6" t="s">
@@ -11265,22 +11271,22 @@
     </row>
     <row r="233" spans="1:18" ht="50" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G233" s="4"/>
       <c r="H233" s="6" t="s">
@@ -11301,29 +11307,29 @@
     </row>
     <row r="234" spans="1:18" ht="50" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G234" s="4"/>
       <c r="H234" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I234" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J234" s="3"/>
       <c r="K234" s="3">
@@ -11339,27 +11345,27 @@
     </row>
     <row r="235" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B235" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D235" s="4" t="s">
         <v>552</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="D235" s="4" t="s">
-        <v>554</v>
       </c>
       <c r="E235" s="4"/>
       <c r="F235" s="4" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G235" s="4"/>
       <c r="H235" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I235" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J235" s="3"/>
       <c r="K235" s="3">
@@ -11375,27 +11381,27 @@
     </row>
     <row r="236" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B236" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="D236" s="4" t="s">
         <v>556</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="D236" s="4" t="s">
-        <v>558</v>
       </c>
       <c r="E236" s="4"/>
       <c r="F236" s="4" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G236" s="4"/>
       <c r="H236" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J236" s="3"/>
       <c r="K236" s="3">
@@ -11411,25 +11417,25 @@
     </row>
     <row r="237" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B237" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="D237" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="C237" s="4" t="s">
+      <c r="E237" s="4" t="s">
         <v>560</v>
-      </c>
-      <c r="D237" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="E237" s="4" t="s">
-        <v>562</v>
       </c>
       <c r="F237" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H237" s="6" t="s">
         <v>17</v>
@@ -11449,25 +11455,25 @@
     </row>
     <row r="238" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F238" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H238" s="6" t="s">
         <v>17</v>
@@ -11487,25 +11493,25 @@
     </row>
     <row r="239" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H239" s="6" t="s">
         <v>17</v>
@@ -11525,25 +11531,25 @@
     </row>
     <row r="240" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F240" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H240" s="6" t="s">
         <v>17</v>
@@ -11563,25 +11569,25 @@
     </row>
     <row r="241" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F241" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H241" s="6" t="s">
         <v>17</v>
@@ -11601,25 +11607,25 @@
     </row>
     <row r="242" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F242" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H242" s="6" t="s">
         <v>17</v>
@@ -11639,25 +11645,25 @@
     </row>
     <row r="243" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F243" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H243" s="6" t="s">
         <v>17</v>
@@ -11677,23 +11683,23 @@
     </row>
     <row r="244" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B244" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="D244" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="D244" s="4" t="s">
-        <v>577</v>
       </c>
       <c r="E244" s="4"/>
       <c r="F244" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H244" s="6" t="s">
         <v>17</v>
@@ -11713,25 +11719,25 @@
     </row>
     <row r="245" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B245" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D245" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="C245" s="4" t="s">
+      <c r="E245" s="4" t="s">
         <v>580</v>
-      </c>
-      <c r="D245" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="E245" s="4" t="s">
-        <v>582</v>
       </c>
       <c r="F245" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H245" s="6" t="s">
         <v>17</v>
@@ -11751,25 +11757,25 @@
     </row>
     <row r="246" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F246" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H246" s="6" t="s">
         <v>17</v>
@@ -11789,25 +11795,25 @@
     </row>
     <row r="247" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F247" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H247" s="6" t="s">
         <v>17</v>
@@ -11827,25 +11833,25 @@
     </row>
     <row r="248" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F248" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H248" s="6" t="s">
         <v>17</v>
@@ -11865,25 +11871,25 @@
     </row>
     <row r="249" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F249" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H249" s="6" t="s">
         <v>17</v>
@@ -11903,23 +11909,23 @@
     </row>
     <row r="250" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F250" s="4"/>
       <c r="G250" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H250" s="6"/>
       <c r="I250" s="6"/>
@@ -11935,23 +11941,23 @@
     </row>
     <row r="251" spans="1:18" ht="100" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B251" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="D251" s="4" t="s">
         <v>591</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="D251" s="4" t="s">
-        <v>593</v>
       </c>
       <c r="E251" s="4"/>
       <c r="F251" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H251" s="6" t="s">
         <v>17</v>
@@ -11971,23 +11977,23 @@
     </row>
     <row r="252" spans="1:18" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B252" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="D252" s="4" t="s">
         <v>595</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="D252" s="4" t="s">
-        <v>597</v>
       </c>
       <c r="E252" s="4"/>
       <c r="F252" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H252" s="6" t="s">
         <v>17</v>
@@ -12007,24 +12013,24 @@
     </row>
     <row r="253" spans="1:18" ht="137.5" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B253" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D253" s="4" t="s">
         <v>599</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="D253" s="4" t="s">
-        <v>601</v>
       </c>
       <c r="E253" s="4"/>
       <c r="F253" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G253" s="4"/>
       <c r="H253" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I253" s="6"/>
       <c r="J253" s="3"/>
@@ -12041,24 +12047,24 @@
     </row>
     <row r="254" spans="1:18" ht="50" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="B254" s="18" t="s">
+        <v>644</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="D254" s="4" t="s">
         <v>620</v>
-      </c>
-      <c r="B254" s="18" t="s">
-        <v>646</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="D254" s="4" t="s">
-        <v>622</v>
       </c>
       <c r="E254" s="4"/>
       <c r="F254" s="4" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G254" s="4"/>
       <c r="H254" s="18" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I254" s="6"/>
       <c r="J254" s="3"/>
@@ -12073,22 +12079,22 @@
     </row>
     <row r="255" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B255" s="18" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
       <c r="G255" s="4"/>
       <c r="H255" s="18" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I255" s="6"/>
       <c r="J255" s="3"/>
@@ -12103,24 +12109,24 @@
     </row>
     <row r="256" spans="1:18" ht="125" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B256" s="18" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E256" s="4"/>
       <c r="F256" s="4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G256" s="4"/>
       <c r="H256" s="18" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I256" s="6"/>
       <c r="J256" s="3"/>
@@ -12135,24 +12141,24 @@
     </row>
     <row r="257" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B257" s="18" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C257" s="18" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D257" s="18" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E257" s="4"/>
       <c r="F257" s="18" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G257" s="4"/>
       <c r="H257" s="18" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I257" s="6"/>
       <c r="J257" s="3"/>
@@ -12167,22 +12173,22 @@
     </row>
     <row r="258" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B258" s="18" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C258" s="18" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D258" s="18" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
       <c r="G258" s="4"/>
       <c r="H258" s="18" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I258" s="6"/>
       <c r="J258" s="3"/>
@@ -12197,23 +12203,23 @@
     </row>
     <row r="259" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B259" s="18" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C259" s="18" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D259" s="18" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F259" s="18" t="s">
         <v>102</v>
       </c>
       <c r="G259" s="4"/>
       <c r="H259" s="18" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I259" s="6"/>
       <c r="J259" s="3"/>
@@ -12228,26 +12234,26 @@
     </row>
     <row r="260" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B260" s="18" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C260" s="18" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D260" s="18" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E260" s="18"/>
       <c r="F260" s="18" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H260" s="18" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I260" s="6"/>
       <c r="J260" s="3"/>
@@ -12262,26 +12268,26 @@
     </row>
     <row r="261" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B261" s="18" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C261" s="18" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D261" s="18" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E261" s="4"/>
       <c r="F261" s="18" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H261" s="18" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I261" s="6"/>
       <c r="J261" s="3"/>
@@ -12296,26 +12302,26 @@
     </row>
     <row r="262" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B262" s="18" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C262" s="18" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D262" s="18" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E262" s="4"/>
       <c r="F262" s="18" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G262" s="4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H262" s="18" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I262" s="6"/>
       <c r="J262" s="3"/>
@@ -12330,26 +12336,26 @@
     </row>
     <row r="263" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B263" s="18" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C263" s="18" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D263" s="18" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E263" s="4"/>
       <c r="F263" s="18" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H263" s="18" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I263" s="6"/>
       <c r="J263" s="3"/>

--- a/01_input/04_codebook/codebook.xlsx
+++ b/01_input/04_codebook/codebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c101f8769f4fd7d/Escritorio/NUDOS/2023_digital_inclusion/01_input/04_codebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="337" documentId="11_BE684090E4397B7EDE701FB4C457786047A6B131" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{079060B9-344A-4CA7-AA1F-15AF838121CD}"/>
+  <xr:revisionPtr revIDLastSave="338" documentId="11_BE684090E4397B7EDE701FB4C457786047A6B131" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F295AB6-4ED6-4EC8-84A3-85BD48EB8441}"/>
   <bookViews>
     <workbookView xWindow="32280" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2216,9 +2216,6 @@
     <t>Autoeficacia Política</t>
   </si>
   <si>
-    <t>He bloqueado o dejado de seguir a personas porque publicar información falsa</t>
-  </si>
-  <si>
     <t>Cuándo navega por internet o usa las redes sociales, ¿con qué frecuencia le han ocurrido las siguientes situaciones?</t>
   </si>
   <si>
@@ -2229,6 +2226,9 @@
   </si>
   <si>
     <t>Autoeficacia en internet</t>
+  </si>
+  <si>
+    <t>He bloqueado o dejado de seguir a personas porque publican información falsa</t>
   </si>
 </sst>
 </file>
@@ -2785,8 +2785,8 @@
   </sheetPr>
   <dimension ref="A1:R1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5800,7 +5800,7 @@
         <v>187</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>188</v>
@@ -5836,7 +5836,7 @@
         <v>187</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>188</v>
@@ -5874,7 +5874,7 @@
         <v>187</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>188</v>
@@ -5910,7 +5910,7 @@
         <v>187</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>188</v>
@@ -5948,7 +5948,7 @@
         <v>187</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>188</v>
@@ -5984,7 +5984,7 @@
         <v>187</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>188</v>
@@ -6020,7 +6020,7 @@
         <v>187</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>188</v>
@@ -6051,12 +6051,12 @@
       <c r="Q89" s="3"/>
       <c r="R89" s="3"/>
     </row>
-    <row r="90" spans="1:18" ht="50" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>188</v>
@@ -7547,7 +7547,7 @@
         <v>678</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D130" s="18" t="s">
         <v>679</v>
@@ -7581,7 +7581,7 @@
         <v>678</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D131" s="18" t="s">
         <v>682</v>
@@ -7615,7 +7615,7 @@
         <v>678</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D132" s="18" t="s">
         <v>683</v>
@@ -7649,13 +7649,13 @@
         <v>678</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D133" s="18" t="s">
         <v>684</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="F133" s="18" t="s">
         <v>681</v>
@@ -7683,7 +7683,7 @@
         <v>678</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D134" s="18" t="s">
         <v>685</v>
@@ -7717,7 +7717,7 @@
         <v>678</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D135" s="18" t="s">
         <v>686</v>
@@ -8962,7 +8962,7 @@
         <v>712</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>339</v>
@@ -8994,7 +8994,7 @@
         <v>712</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>339</v>
@@ -9026,7 +9026,7 @@
         <v>712</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>339</v>

--- a/01_input/04_codebook/codebook.xlsx
+++ b/01_input/04_codebook/codebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c101f8769f4fd7d/Escritorio/NUDOS/2023_digital_inclusion/01_input/04_codebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="338" documentId="11_BE684090E4397B7EDE701FB4C457786047A6B131" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F295AB6-4ED6-4EC8-84A3-85BD48EB8441}"/>
+  <xr:revisionPtr revIDLastSave="339" documentId="11_BE684090E4397B7EDE701FB4C457786047A6B131" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F66F42B6-AC22-48FE-9FA1-1245C7EB483E}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -1883,9 +1883,6 @@
     <t>tipo_zona</t>
   </si>
   <si>
-    <t>Rural (1); Urbana (2)</t>
-  </si>
-  <si>
     <t>Región</t>
   </si>
   <si>
@@ -2229,6 +2226,9 @@
   </si>
   <si>
     <t>He bloqueado o dejado de seguir a personas porque publican información falsa</t>
+  </si>
+  <si>
+    <t>Urbana (1); Rural (2)</t>
   </si>
 </sst>
 </file>
@@ -2785,8 +2785,8 @@
   </sheetPr>
   <dimension ref="A1:R1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E132" sqref="E132"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2853,10 +2853,10 @@
         <v>602</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>615</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>616</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>604</v>
@@ -2864,7 +2864,7 @@
       <c r="E2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="19" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="3"/>
@@ -2882,7 +2882,7 @@
         <v>602</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>603</v>
@@ -2892,11 +2892,11 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12" t="s">
-        <v>606</v>
+        <v>718</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="19" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="3"/>
@@ -2914,21 +2914,21 @@
         <v>602</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>607</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>608</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="19" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="3"/>
@@ -2946,21 +2946,21 @@
         <v>602</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>609</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>610</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="19" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="3"/>
@@ -2978,21 +2978,21 @@
         <v>602</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>612</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>613</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="19" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="3"/>
@@ -3312,10 +3312,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -3501,7 +3501,7 @@
         <v>55</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>46</v>
@@ -3538,7 +3538,7 @@
         <v>43</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>56</v>
@@ -3848,10 +3848,10 @@
         <v>59</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -4127,7 +4127,7 @@
         <v>98</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>17</v>
@@ -4163,7 +4163,7 @@
         <v>102</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>34</v>
@@ -4309,7 +4309,7 @@
         <v>111</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>17</v>
@@ -4345,7 +4345,7 @@
         <v>115</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>17</v>
@@ -4383,7 +4383,7 @@
         <v>102</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>24</v>
@@ -4423,7 +4423,7 @@
         <v>102</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>17</v>
@@ -4461,7 +4461,7 @@
         <v>102</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>17</v>
@@ -4499,7 +4499,7 @@
         <v>102</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>24</v>
@@ -4537,7 +4537,7 @@
         <v>102</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>17</v>
@@ -4566,17 +4566,17 @@
         <v>117</v>
       </c>
       <c r="D51" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="E51" s="18" t="s">
         <v>649</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>650</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="3"/>
@@ -4609,7 +4609,7 @@
         <v>133</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>134</v>
@@ -4649,7 +4649,7 @@
         <v>133</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>134</v>
@@ -4689,7 +4689,7 @@
         <v>133</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>134</v>
@@ -4729,7 +4729,7 @@
         <v>133</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>134</v>
@@ -4769,7 +4769,7 @@
         <v>133</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>134</v>
@@ -4809,7 +4809,7 @@
         <v>133</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>134</v>
@@ -4849,7 +4849,7 @@
         <v>133</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>134</v>
@@ -4880,16 +4880,16 @@
         <v>130</v>
       </c>
       <c r="D59" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="E59" s="18" t="s">
         <v>659</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>660</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>133</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>134</v>
@@ -4913,19 +4913,19 @@
         <v>150</v>
       </c>
       <c r="C60" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="D60" s="18" t="s">
         <v>665</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="E60" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="F60" s="18" t="s">
         <v>666</v>
       </c>
-      <c r="E60" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="F60" s="18" t="s">
-        <v>667</v>
-      </c>
       <c r="G60" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>151</v>
@@ -4951,19 +4951,19 @@
         <v>150</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>151</v>
@@ -4987,19 +4987,19 @@
         <v>150</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>151</v>
@@ -5023,19 +5023,19 @@
         <v>150</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>151</v>
@@ -5068,10 +5068,10 @@
         <v>132</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>151</v>
@@ -5108,10 +5108,10 @@
         <v>137</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>151</v>
@@ -5148,10 +5148,10 @@
         <v>140</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>151</v>
@@ -5188,10 +5188,10 @@
         <v>142</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>151</v>
@@ -5228,10 +5228,10 @@
         <v>144</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>151</v>
@@ -5268,10 +5268,10 @@
         <v>146</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>151</v>
@@ -5308,10 +5308,10 @@
         <v>148</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>151</v>
@@ -5342,16 +5342,16 @@
         <v>153</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>151</v>
@@ -5378,16 +5378,16 @@
         <v>153</v>
       </c>
       <c r="D72" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="E72" s="18" t="s">
         <v>662</v>
       </c>
-      <c r="E72" s="18" t="s">
+      <c r="F72" s="18" t="s">
         <v>663</v>
       </c>
-      <c r="F72" s="18" t="s">
-        <v>664</v>
-      </c>
       <c r="G72" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
@@ -5421,7 +5421,7 @@
         <v>102</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>167</v>
@@ -5461,7 +5461,7 @@
         <v>102</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>151</v>
@@ -5501,7 +5501,7 @@
         <v>102</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>167</v>
@@ -5541,7 +5541,7 @@
         <v>102</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>167</v>
@@ -5581,7 +5581,7 @@
         <v>102</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>167</v>
@@ -5615,13 +5615,13 @@
         <v>179</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>167</v>
@@ -5661,7 +5661,7 @@
         <v>102</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>167</v>
@@ -5701,7 +5701,7 @@
         <v>102</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>167</v>
@@ -5741,7 +5741,7 @@
         <v>102</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>167</v>
@@ -5772,14 +5772,14 @@
         <v>164</v>
       </c>
       <c r="D82" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="E82" s="18" t="s">
         <v>657</v>
-      </c>
-      <c r="E82" s="18" t="s">
-        <v>658</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="18" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>167</v>
@@ -5800,7 +5800,7 @@
         <v>187</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>188</v>
@@ -5836,7 +5836,7 @@
         <v>187</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>188</v>
@@ -5874,7 +5874,7 @@
         <v>187</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>188</v>
@@ -5910,7 +5910,7 @@
         <v>187</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>188</v>
@@ -5948,7 +5948,7 @@
         <v>187</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>188</v>
@@ -5984,7 +5984,7 @@
         <v>187</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>188</v>
@@ -6020,7 +6020,7 @@
         <v>187</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>188</v>
@@ -6056,7 +6056,7 @@
         <v>187</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>188</v>
@@ -6065,7 +6065,7 @@
         <v>206</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>191</v>
@@ -7544,19 +7544,19 @@
         <v>187</v>
       </c>
       <c r="B130" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>713</v>
+      </c>
+      <c r="D130" s="18" t="s">
         <v>678</v>
       </c>
-      <c r="C130" s="18" t="s">
-        <v>714</v>
-      </c>
-      <c r="D130" s="18" t="s">
+      <c r="E130" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="E130" s="18" t="s">
+      <c r="F130" s="18" t="s">
         <v>680</v>
-      </c>
-      <c r="F130" s="18" t="s">
-        <v>681</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="6" t="s">
@@ -7578,19 +7578,19 @@
         <v>187</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D131" s="18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="6" t="s">
@@ -7612,19 +7612,19 @@
         <v>187</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D132" s="18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F132" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="6" t="s">
@@ -7646,19 +7646,19 @@
         <v>187</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D133" s="18" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="6" t="s">
@@ -7680,19 +7680,19 @@
         <v>187</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D134" s="18" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E134" s="18" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G134" s="4"/>
       <c r="H134" s="6" t="s">
@@ -7714,19 +7714,19 @@
         <v>187</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D135" s="18" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E135" s="18" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="6" t="s">
@@ -8011,7 +8011,7 @@
     </row>
     <row r="143" spans="1:18" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>333</v>
@@ -8045,7 +8045,7 @@
     </row>
     <row r="144" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>338</v>
@@ -8081,7 +8081,7 @@
     </row>
     <row r="145" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>338</v>
@@ -8117,7 +8117,7 @@
     </row>
     <row r="146" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>338</v>
@@ -8153,7 +8153,7 @@
     </row>
     <row r="147" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>338</v>
@@ -8189,7 +8189,7 @@
     </row>
     <row r="148" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>338</v>
@@ -8198,10 +8198,10 @@
         <v>339</v>
       </c>
       <c r="D148" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="E148" s="18" t="s">
         <v>691</v>
-      </c>
-      <c r="E148" s="18" t="s">
-        <v>692</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>342</v>
@@ -8225,7 +8225,7 @@
     </row>
     <row r="149" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>349</v>
@@ -8263,7 +8263,7 @@
     </row>
     <row r="150" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>349</v>
@@ -8299,7 +8299,7 @@
     </row>
     <row r="151" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>349</v>
@@ -8335,7 +8335,7 @@
     </row>
     <row r="152" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>349</v>
@@ -8371,7 +8371,7 @@
     </row>
     <row r="153" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>349</v>
@@ -8409,7 +8409,7 @@
     </row>
     <row r="154" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>349</v>
@@ -8447,7 +8447,7 @@
     </row>
     <row r="155" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>365</v>
@@ -8483,7 +8483,7 @@
     </row>
     <row r="156" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>365</v>
@@ -8519,7 +8519,7 @@
     </row>
     <row r="157" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>365</v>
@@ -8555,7 +8555,7 @@
     </row>
     <row r="158" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>365</v>
@@ -8593,7 +8593,7 @@
     </row>
     <row r="159" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>375</v>
@@ -8629,7 +8629,7 @@
     </row>
     <row r="160" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>375</v>
@@ -8665,7 +8665,7 @@
     </row>
     <row r="161" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>375</v>
@@ -8701,7 +8701,7 @@
     </row>
     <row r="162" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>375</v>
@@ -8737,7 +8737,7 @@
     </row>
     <row r="163" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>375</v>
@@ -8773,7 +8773,7 @@
     </row>
     <row r="164" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>375</v>
@@ -8809,7 +8809,7 @@
     </row>
     <row r="165" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>388</v>
@@ -8845,7 +8845,7 @@
     </row>
     <row r="166" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>388</v>
@@ -8883,7 +8883,7 @@
     </row>
     <row r="167" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>388</v>
@@ -8921,7 +8921,7 @@
     </row>
     <row r="168" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>388</v>
@@ -8959,19 +8959,19 @@
     </row>
     <row r="169" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>339</v>
       </c>
       <c r="D169" s="18" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E169" s="18" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>342</v>
@@ -8991,19 +8991,19 @@
     </row>
     <row r="170" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>339</v>
       </c>
       <c r="D170" s="18" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E170" s="18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>342</v>
@@ -9023,19 +9023,19 @@
     </row>
     <row r="171" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>339</v>
       </c>
       <c r="D171" s="18" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F171" s="4" t="s">
         <v>342</v>
@@ -9055,7 +9055,7 @@
     </row>
     <row r="172" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>400</v>
@@ -9093,7 +9093,7 @@
     </row>
     <row r="173" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>400</v>
@@ -9129,7 +9129,7 @@
     </row>
     <row r="174" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>400</v>
@@ -9165,7 +9165,7 @@
     </row>
     <row r="175" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>400</v>
@@ -9201,7 +9201,7 @@
     </row>
     <row r="176" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>400</v>
@@ -9237,7 +9237,7 @@
     </row>
     <row r="177" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>400</v>
@@ -9273,7 +9273,7 @@
     </row>
     <row r="178" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>400</v>
@@ -9309,7 +9309,7 @@
     </row>
     <row r="179" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>400</v>
@@ -9345,7 +9345,7 @@
     </row>
     <row r="180" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>400</v>
@@ -9381,7 +9381,7 @@
     </row>
     <row r="181" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>400</v>
@@ -9417,7 +9417,7 @@
     </row>
     <row r="182" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>400</v>
@@ -9453,7 +9453,7 @@
     </row>
     <row r="183" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>400</v>
@@ -9489,7 +9489,7 @@
     </row>
     <row r="184" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>400</v>
@@ -9525,7 +9525,7 @@
     </row>
     <row r="185" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>400</v>
@@ -9561,7 +9561,7 @@
     </row>
     <row r="186" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>400</v>
@@ -9597,7 +9597,7 @@
     </row>
     <row r="187" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>400</v>
@@ -9635,7 +9635,7 @@
     </row>
     <row r="188" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>435</v>
@@ -9673,7 +9673,7 @@
     </row>
     <row r="189" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>435</v>
@@ -9711,7 +9711,7 @@
     </row>
     <row r="190" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>435</v>
@@ -9749,7 +9749,7 @@
     </row>
     <row r="191" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>435</v>
@@ -9787,7 +9787,7 @@
     </row>
     <row r="192" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>435</v>
@@ -9825,7 +9825,7 @@
     </row>
     <row r="193" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>435</v>
@@ -9863,7 +9863,7 @@
     </row>
     <row r="194" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>435</v>
@@ -9901,7 +9901,7 @@
     </row>
     <row r="195" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>435</v>
@@ -9939,7 +9939,7 @@
     </row>
     <row r="196" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>435</v>
@@ -9977,7 +9977,7 @@
     </row>
     <row r="197" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>435</v>
@@ -10015,7 +10015,7 @@
     </row>
     <row r="198" spans="1:18" ht="25" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>435</v>
@@ -10024,10 +10024,10 @@
         <v>436</v>
       </c>
       <c r="D198" s="18" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E198" s="18" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
@@ -10278,7 +10278,7 @@
         <v>480</v>
       </c>
       <c r="F205" s="18" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G205" s="4"/>
       <c r="H205" s="6" t="s">
@@ -10314,7 +10314,7 @@
         <v>482</v>
       </c>
       <c r="F206" s="18" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G206" s="4"/>
       <c r="H206" s="6" t="s">
@@ -10350,7 +10350,7 @@
         <v>484</v>
       </c>
       <c r="F207" s="18" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G207" s="4"/>
       <c r="H207" s="6" t="s">
@@ -10386,7 +10386,7 @@
         <v>486</v>
       </c>
       <c r="F208" s="18" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G208" s="4"/>
       <c r="H208" s="6" t="s">
@@ -10422,7 +10422,7 @@
         <v>488</v>
       </c>
       <c r="F209" s="18" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G209" s="4"/>
       <c r="H209" s="6" t="s">
@@ -10458,7 +10458,7 @@
         <v>490</v>
       </c>
       <c r="F210" s="18" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G210" s="4"/>
       <c r="H210" s="6" t="s">
@@ -10482,7 +10482,7 @@
         <v>458</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>478</v>
@@ -10491,7 +10491,7 @@
         <v>491</v>
       </c>
       <c r="E211" s="18" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F211" s="4" t="s">
         <v>492</v>
@@ -10518,7 +10518,7 @@
         <v>458</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>478</v>
@@ -10527,7 +10527,7 @@
         <v>493</v>
       </c>
       <c r="E212" s="18" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F212" s="4" t="s">
         <v>492</v>
@@ -10554,7 +10554,7 @@
         <v>458</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>478</v>
@@ -10563,7 +10563,7 @@
         <v>494</v>
       </c>
       <c r="E213" s="18" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F213" s="4" t="s">
         <v>492</v>
@@ -10590,7 +10590,7 @@
         <v>458</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>478</v>
@@ -10599,7 +10599,7 @@
         <v>495</v>
       </c>
       <c r="E214" s="18" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F214" s="18" t="s">
         <v>492</v>
@@ -11104,7 +11104,7 @@
       </c>
       <c r="E228" s="4"/>
       <c r="F228" s="18" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G228" s="4"/>
       <c r="H228" s="6" t="s">
@@ -11140,7 +11140,7 @@
       </c>
       <c r="E229" s="4"/>
       <c r="F229" s="18" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G229" s="4"/>
       <c r="H229" s="6" t="s">
@@ -11358,7 +11358,7 @@
       </c>
       <c r="E235" s="4"/>
       <c r="F235" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G235" s="4"/>
       <c r="H235" s="6" t="s">
@@ -11394,7 +11394,7 @@
       </c>
       <c r="E236" s="4"/>
       <c r="F236" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G236" s="4"/>
       <c r="H236" s="6" t="s">
@@ -11435,7 +11435,7 @@
         <v>102</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H237" s="6" t="s">
         <v>17</v>
@@ -11473,7 +11473,7 @@
         <v>102</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H238" s="6" t="s">
         <v>17</v>
@@ -11511,7 +11511,7 @@
         <v>102</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H239" s="6" t="s">
         <v>17</v>
@@ -11549,7 +11549,7 @@
         <v>102</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H240" s="6" t="s">
         <v>17</v>
@@ -11587,7 +11587,7 @@
         <v>102</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H241" s="6" t="s">
         <v>17</v>
@@ -11625,7 +11625,7 @@
         <v>102</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H242" s="6" t="s">
         <v>17</v>
@@ -11663,7 +11663,7 @@
         <v>102</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H243" s="6" t="s">
         <v>17</v>
@@ -11699,7 +11699,7 @@
         <v>576</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H244" s="6" t="s">
         <v>17</v>
@@ -11737,7 +11737,7 @@
         <v>102</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H245" s="6" t="s">
         <v>17</v>
@@ -11775,7 +11775,7 @@
         <v>102</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H246" s="6" t="s">
         <v>17</v>
@@ -11813,7 +11813,7 @@
         <v>102</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H247" s="6" t="s">
         <v>17</v>
@@ -11851,7 +11851,7 @@
         <v>102</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H248" s="6" t="s">
         <v>17</v>
@@ -11889,7 +11889,7 @@
         <v>102</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H249" s="6" t="s">
         <v>17</v>
@@ -11918,14 +11918,14 @@
         <v>578</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F250" s="4"/>
       <c r="G250" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H250" s="6"/>
       <c r="I250" s="6"/>
@@ -11957,7 +11957,7 @@
         <v>592</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H251" s="6" t="s">
         <v>17</v>
@@ -11993,7 +11993,7 @@
         <v>596</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H252" s="6" t="s">
         <v>17</v>
@@ -12047,24 +12047,24 @@
     </row>
     <row r="254" spans="1:18" ht="50" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B254" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="C254" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="B254" s="18" t="s">
-        <v>644</v>
-      </c>
-      <c r="C254" s="4" t="s">
+      <c r="D254" s="4" t="s">
         <v>619</v>
-      </c>
-      <c r="D254" s="4" t="s">
-        <v>620</v>
       </c>
       <c r="E254" s="4"/>
       <c r="F254" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G254" s="4"/>
       <c r="H254" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I254" s="6"/>
       <c r="J254" s="3"/>
@@ -12079,22 +12079,22 @@
     </row>
     <row r="255" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B255" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C255" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="D255" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="D255" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
       <c r="G255" s="4"/>
       <c r="H255" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I255" s="6"/>
       <c r="J255" s="3"/>
@@ -12109,24 +12109,24 @@
     </row>
     <row r="256" spans="1:18" ht="125" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B256" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E256" s="4"/>
       <c r="F256" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G256" s="4"/>
       <c r="H256" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I256" s="6"/>
       <c r="J256" s="3"/>
@@ -12141,24 +12141,24 @@
     </row>
     <row r="257" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B257" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C257" s="18" t="s">
+        <v>626</v>
+      </c>
+      <c r="D257" s="18" t="s">
         <v>627</v>
-      </c>
-      <c r="D257" s="18" t="s">
-        <v>628</v>
       </c>
       <c r="E257" s="4"/>
       <c r="F257" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G257" s="4"/>
       <c r="H257" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I257" s="6"/>
       <c r="J257" s="3"/>
@@ -12173,22 +12173,22 @@
     </row>
     <row r="258" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B258" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C258" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="D258" s="18" t="s">
         <v>630</v>
-      </c>
-      <c r="D258" s="18" t="s">
-        <v>631</v>
       </c>
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
       <c r="G258" s="4"/>
       <c r="H258" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I258" s="6"/>
       <c r="J258" s="3"/>
@@ -12203,23 +12203,23 @@
     </row>
     <row r="259" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B259" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C259" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="D259" s="18" t="s">
         <v>632</v>
-      </c>
-      <c r="D259" s="18" t="s">
-        <v>633</v>
       </c>
       <c r="F259" s="18" t="s">
         <v>102</v>
       </c>
       <c r="G259" s="4"/>
       <c r="H259" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I259" s="6"/>
       <c r="J259" s="3"/>
@@ -12234,26 +12234,26 @@
     </row>
     <row r="260" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B260" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C260" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="D260" s="18" t="s">
         <v>635</v>
-      </c>
-      <c r="D260" s="18" t="s">
-        <v>636</v>
       </c>
       <c r="E260" s="18"/>
       <c r="F260" s="18" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H260" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I260" s="6"/>
       <c r="J260" s="3"/>
@@ -12268,26 +12268,26 @@
     </row>
     <row r="261" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B261" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C261" s="18" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D261" s="18" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E261" s="4"/>
       <c r="F261" s="18" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H261" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I261" s="6"/>
       <c r="J261" s="3"/>
@@ -12302,26 +12302,26 @@
     </row>
     <row r="262" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B262" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C262" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="D262" s="18" t="s">
         <v>639</v>
-      </c>
-      <c r="D262" s="18" t="s">
-        <v>640</v>
       </c>
       <c r="E262" s="4"/>
       <c r="F262" s="18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G262" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H262" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I262" s="6"/>
       <c r="J262" s="3"/>
@@ -12336,26 +12336,26 @@
     </row>
     <row r="263" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B263" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C263" s="18" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D263" s="18" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E263" s="4"/>
       <c r="F263" s="18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H263" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I263" s="6"/>
       <c r="J263" s="3"/>
